--- a/TestData/Register page/tc32.xlsx
+++ b/TestData/Register page/tc32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\Register page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB3A1FF-9AAE-4CBE-908A-627E32647686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE9D9FE-D1FC-40A4-BC3F-DAF8F21F170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
     <t>Bhopal</t>
   </si>
   <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Anu@1234</t>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Sandeep@123</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>12345</v>
       </c>
       <c r="C2">
-        <v>9039568978</v>
+        <v>7817001234</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
